--- a/app/Группы/Отчеты/repAllFlatsSaldo.xlsx
+++ b/app/Группы/Отчеты/repAllFlatsSaldo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -329,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -612,7 +613,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K4" sqref="C4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,31 +683,31 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -718,7 +719,7 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/app/Группы/Отчеты/repAllFlatsSaldo.xlsx
+++ b/app/Группы/Отчеты/repAllFlatsSaldo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\music\.platypusreports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -87,12 +87,18 @@
   </si>
   <si>
     <t>${sal.sal_penalties_pay}</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>${sal.lc_char_val}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -286,11 +292,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,6 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,7 +362,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,113 +648,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="C4:K4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="11" width="14.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27" customWidth="1"/>
+    <col min="4" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:K2"/>
+  <mergeCells count="5">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
